--- a/Documents/Sprint Plan/SprintPlan.xlsx
+++ b/Documents/Sprint Plan/SprintPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyer\Documents\GitHub\ProCp\Documents\Sprint Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
   <si>
     <t>Task Name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Removing a crop(s) from a plot</t>
   </si>
   <si>
-    <t>Impletmenting the land selection option</t>
-  </si>
-  <si>
     <t>Soil Selection</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Changing Plot Size</t>
   </si>
   <si>
-    <t>Impletmenting the run simulation</t>
-  </si>
-  <si>
     <t>Save Simulation</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Load Application</t>
   </si>
   <si>
-    <t>Impletmenting ther Information Panel</t>
-  </si>
-  <si>
     <t>Generating Report</t>
   </si>
   <si>
@@ -155,12 +146,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Monday, Novemebr 21,2016</t>
-  </si>
-  <si>
-    <t>Saturday, Novemeber 26,2016</t>
-  </si>
-  <si>
     <t>Sunday, November 27,2016</t>
   </si>
   <si>
@@ -207,6 +192,27 @@
   </si>
   <si>
     <t>Final GUI Design</t>
+  </si>
+  <si>
+    <t>Basic GUI Design</t>
+  </si>
+  <si>
+    <t>Test Report</t>
+  </si>
+  <si>
+    <t>Monday, November 21,2016</t>
+  </si>
+  <si>
+    <t>Saturday, November 26,2016</t>
+  </si>
+  <si>
+    <t>Implementing the land selection option</t>
+  </si>
+  <si>
+    <t>Implementing the run simulation</t>
+  </si>
+  <si>
+    <t>Implementing ther Information Panel</t>
   </si>
 </sst>
 </file>
@@ -356,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,14 +401,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>84797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>14344</xdr:rowOff>
+      <xdr:colOff>55651</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>14345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -773,7 +779,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
     <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
@@ -923,7 +929,7 @@
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -945,10 +951,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -985,14 +991,14 @@
         <v>15</v>
       </c>
       <c r="F7" s="3">
-        <f>SUM(F8:F11)</f>
-        <v>105</v>
+        <f>SUM(F8:F12)</f>
+        <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
@@ -1019,7 +1025,7 @@
       <c r="A8" s="2">
         <v>101</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1037,7 +1043,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1063,8 +1069,8 @@
       <c r="A9" s="2">
         <v>102</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>58</v>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1080,9 +1086,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1103,29 +1107,29 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>103</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1147,27 +1151,29 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>104</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1189,31 +1195,30 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
-        <f>SUM(F13:F20)</f>
-        <v>95</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1234,30 +1239,31 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>201</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F13" s="3">
+        <f>SUM(F14:F23)</f>
+        <v>125</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1280,10 +1286,10 @@
     </row>
     <row r="14" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1295,12 +1301,12 @@
         <v>16</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1324,10 +1330,10 @@
     </row>
     <row r="15" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1339,12 +1345,12 @@
         <v>16</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1368,27 +1374,27 @@
     </row>
     <row r="16" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1412,10 +1418,10 @@
     </row>
     <row r="17" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1432,7 +1438,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1456,10 +1462,10 @@
     </row>
     <row r="18" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1476,7 +1482,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1500,27 +1506,27 @@
     </row>
     <row r="19" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1544,27 +1550,27 @@
     </row>
     <row r="20" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1588,25 +1594,27 @@
     </row>
     <row r="21" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1628,31 +1636,30 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>209</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="3">
-        <f>SUM(F23:F27)</f>
-        <v>160</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="F22" s="2">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1675,13 +1682,13 @@
     </row>
     <row r="23" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1690,12 +1697,12 @@
         <v>16</v>
       </c>
       <c r="F23" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1717,30 +1724,31 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>302</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="2">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F24" s="3">
+        <f>SUM(F25:F31)</f>
+        <v>190</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1762,28 +1770,28 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>303</v>
+      <c r="A25" s="2">
+        <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1806,11 +1814,11 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
-        <v>304</v>
+      <c r="A26" s="9">
+        <v>302</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1822,12 +1830,12 @@
         <v>16</v>
       </c>
       <c r="F26" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1850,28 +1858,28 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
-        <v>305</v>
+      <c r="A27" s="9">
+        <v>303</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1894,14 +1902,14 @@
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>306</v>
+      <c r="A28" s="10">
+        <v>304</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1909,11 +1917,13 @@
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>15</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1935,30 +1945,30 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>305</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
-        <f>SUM(F30:F31)</f>
-        <v>135</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="3"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1980,28 +1990,28 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
-        <v>401</v>
+      <c r="A30" s="2">
+        <v>306</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2024,28 +2034,28 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
-        <v>402</v>
+      <c r="A31" s="2">
+        <v>307</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="2">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2067,28 +2077,30 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>403</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="32" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="F32" s="3">
+        <f>SUM(F33:F35)</f>
+        <v>165</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -2109,20 +2121,33 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
+    <row r="33" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>401</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -2140,18 +2165,33 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
+    <row r="34" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>402</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>60</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -2169,18 +2209,33 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
+    <row r="35" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>403</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2">
+        <v>30</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -2198,17 +2253,19 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="7"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -2227,17 +2284,17 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="7"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -2256,17 +2313,17 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="7"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -2285,18 +2342,18 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -2314,18 +2371,18 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="7"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -2343,18 +2400,18 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -2372,7 +2429,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2401,7 +2458,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2430,7 +2487,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2459,7 +2516,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2488,7 +2545,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2517,7 +2574,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2546,7 +2603,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3387,76 +3444,163 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B33:K38"/>
+    <mergeCell ref="B36:K41"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C35">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D35">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E35">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="C33" r:id="rId2" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D33" r:id="rId3" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F33" r:id="rId4" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G33" r:id="rId5" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H33" r:id="rId6" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I33" r:id="rId7" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J33" r:id="rId8" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K33" r:id="rId9" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B34" r:id="rId10" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C34" r:id="rId11" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D34" r:id="rId12" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F34" r:id="rId13" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G34" r:id="rId14" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H34" r:id="rId15" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I34" r:id="rId16" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J34" r:id="rId17" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K34" r:id="rId18" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B35" r:id="rId19" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C35" r:id="rId20" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D35" r:id="rId21" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F35" r:id="rId22" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G35" r:id="rId23" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H35" r:id="rId24" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I35" r:id="rId25" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J35" r:id="rId26" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K35" r:id="rId27" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B36" r:id="rId28" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C36" r:id="rId29" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D36" r:id="rId30" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F36" r:id="rId31" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G36" r:id="rId32" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H36" r:id="rId33" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I36" r:id="rId34" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J36" r:id="rId35" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K36" r:id="rId36" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B37" r:id="rId37" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C37" r:id="rId38" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D37" r:id="rId39" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F37" r:id="rId40" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G37" r:id="rId41" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H37" r:id="rId42" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I37" r:id="rId43" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J37" r:id="rId44" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K37" r:id="rId45" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="B38" r:id="rId46" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="C38" r:id="rId47" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="D38" r:id="rId48" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="F38" r:id="rId49" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="G38" r:id="rId50" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="H38" r:id="rId51" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="I38" r:id="rId52" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="J38" r:id="rId53" display="Create a Product Backlog in Smartsheet"/>
-    <hyperlink ref="K38" r:id="rId54" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B36" r:id="rId1"/>
+    <hyperlink ref="C36" r:id="rId2" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D36" r:id="rId3" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F36" r:id="rId4" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G36" r:id="rId5" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H36" r:id="rId6" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I36" r:id="rId7" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J36" r:id="rId8" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K36" r:id="rId9" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B37" r:id="rId10" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="C37" r:id="rId11" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D37" r:id="rId12" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F37" r:id="rId13" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G37" r:id="rId14" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H37" r:id="rId15" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I37" r:id="rId16" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J37" r:id="rId17" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K37" r:id="rId18" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B38" r:id="rId19" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="C38" r:id="rId20" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D38" r:id="rId21" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F38" r:id="rId22" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G38" r:id="rId23" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H38" r:id="rId24" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I38" r:id="rId25" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J38" r:id="rId26" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K38" r:id="rId27" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B39" r:id="rId28" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="C39" r:id="rId29" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D39" r:id="rId30" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F39" r:id="rId31" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G39" r:id="rId32" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H39" r:id="rId33" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I39" r:id="rId34" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J39" r:id="rId35" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K39" r:id="rId36" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B40" r:id="rId37" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="C40" r:id="rId38" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D40" r:id="rId39" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F40" r:id="rId40" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G40" r:id="rId41" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H40" r:id="rId42" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I40" r:id="rId43" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J40" r:id="rId44" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K40" r:id="rId45" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="B41" r:id="rId46" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="C41" r:id="rId47" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="D41" r:id="rId48" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="F41" r:id="rId49" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="G41" r:id="rId50" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="H41" r:id="rId51" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="I41" r:id="rId52" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="J41" r:id="rId53" display="Create a Product Backlog in Smartsheet"/>
+    <hyperlink ref="K41" r:id="rId54" display="Create a Product Backlog in Smartsheet"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId55"/>

--- a/Documents/Sprint Plan/SprintPlan.xlsx
+++ b/Documents/Sprint Plan/SprintPlan.xlsx
@@ -155,15 +155,6 @@
     <t>Monday, December 12, 2016</t>
   </si>
   <si>
-    <t>Sprint 3 Friday 23, 2016</t>
-  </si>
-  <si>
-    <t>Monday, Janurary 9, 2017</t>
-  </si>
-  <si>
-    <t>Sunday, Janurary 15,2017</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>Implementing ther Information Panel</t>
+  </si>
+  <si>
+    <t>Friday,December,23, 2016</t>
+  </si>
+  <si>
+    <t>Monday, January 9, 2017</t>
+  </si>
+  <si>
+    <t>Sunday, January 15,2017</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -995,10 +995,10 @@
         <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
@@ -1043,7 +1043,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1070,7 +1070,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1112,7 +1112,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1129,7 +1129,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1173,7 +1173,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1200,7 +1200,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1217,7 +1217,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1306,7 +1306,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1350,7 +1350,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1377,7 +1377,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1394,7 +1394,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1438,7 +1438,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1482,7 +1482,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1526,7 +1526,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1570,7 +1570,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1614,7 +1614,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1641,7 +1641,7 @@
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1658,7 +1658,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1685,7 +1685,7 @@
         <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1702,7 +1702,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1746,7 +1746,7 @@
         <v>40</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
@@ -1774,7 +1774,7 @@
         <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1791,7 +1791,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1835,7 +1835,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1879,7 +1879,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1923,7 +1923,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1950,7 +1950,7 @@
         <v>305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1967,7 +1967,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1994,7 +1994,7 @@
         <v>306</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2011,7 +2011,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2038,7 +2038,7 @@
         <v>307</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2055,7 +2055,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2095,10 +2095,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
@@ -2143,7 +2143,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2187,7 +2187,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2214,7 +2214,7 @@
         <v>403</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2231,7 +2231,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>

--- a/Documents/Sprint Plan/SprintPlan.xlsx
+++ b/Documents/Sprint Plan/SprintPlan.xlsx
@@ -143,9 +143,6 @@
     <t>Sunday, November 27,2016</t>
   </si>
   <si>
-    <t>Sunday, December 4,2016</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -188,18 +185,9 @@
     <t>Implementing the run simulation</t>
   </si>
   <si>
-    <t>Friday,December,23, 2016</t>
-  </si>
-  <si>
-    <t>Monday, January 9, 2017</t>
-  </si>
-  <si>
     <t>Sunday, January 15,2017</t>
   </si>
   <si>
-    <t>Monday, December 5, 2016</t>
-  </si>
-  <si>
     <t>Implementing there Information Panel</t>
   </si>
   <si>
@@ -207,6 +195,18 @@
   </si>
   <si>
     <t>Fertilizer Selection</t>
+  </si>
+  <si>
+    <t>Sunday, December 11,2016</t>
+  </si>
+  <si>
+    <t>Monday, December 12, 2016</t>
+  </si>
+  <si>
+    <t>Wedneesday, January 11, 2017</t>
+  </si>
+  <si>
+    <t>Tuesday,January,10, 2016</t>
   </si>
 </sst>
 </file>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -989,10 +989,10 @@
         <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
@@ -1020,7 +1020,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1037,7 +1037,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1064,7 +1064,7 @@
         <v>102</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1106,7 +1106,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1167,7 +1167,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1194,7 +1194,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1211,7 +1211,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -1300,7 +1300,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1344,7 +1344,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1371,7 +1371,7 @@
         <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1388,7 +1388,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1432,7 +1432,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1476,7 +1476,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1503,7 +1503,7 @@
         <v>206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1520,7 +1520,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1564,7 +1564,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1608,7 +1608,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1635,7 +1635,7 @@
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1652,7 +1652,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1679,7 +1679,7 @@
         <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1737,10 +1737,10 @@
         <v>190</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
@@ -1768,7 +1768,7 @@
         <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1785,7 +1785,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1829,7 +1829,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1873,7 +1873,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1917,7 +1917,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1944,7 +1944,7 @@
         <v>305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
@@ -1961,7 +1961,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1988,7 +1988,7 @@
         <v>306</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2005,7 +2005,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2032,7 +2032,7 @@
         <v>307</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
@@ -2049,7 +2049,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2089,10 +2089,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2181,7 +2181,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -2208,7 +2208,7 @@
         <v>403</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2225,7 +2225,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>

--- a/Documents/Sprint Plan/SprintPlan.xlsx
+++ b/Documents/Sprint Plan/SprintPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dyer\Documents\GitHub\ProCp\Documents\Sprint Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raima\Documents\GitHub\ProCp\Documents\Sprint Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -762,23 +762,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="29.875" customWidth="1"/>
     <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -807,7 +807,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -835,7 +835,7 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -864,7 +864,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -893,7 +893,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -922,7 +922,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1015,7 +1015,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>101</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>102</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>103</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>104</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>105</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -1278,7 +1278,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>201</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>202</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>203</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>204</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>205</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>206</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>207</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>208</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>209</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>210</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -1763,7 +1763,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>301</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>302</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>303</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>304</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>305</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>306</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>307</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>401</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>402</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>403</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2307,7 +2307,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2336,7 +2336,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -2365,7 +2365,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2394,7 +2394,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -2423,7 +2423,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2452,7 +2452,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2481,7 +2481,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2510,7 +2510,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2539,7 +2539,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2568,7 +2568,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2597,7 +2597,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2626,7 +2626,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2655,7 +2655,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2684,7 +2684,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2713,7 +2713,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2742,7 +2742,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2771,7 +2771,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2800,7 +2800,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2829,7 +2829,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2858,7 +2858,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2887,7 +2887,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2916,7 +2916,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2945,7 +2945,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2974,7 +2974,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3003,7 +3003,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3032,7 +3032,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3061,7 +3061,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3090,7 +3090,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3119,7 +3119,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3148,7 +3148,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3177,7 +3177,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3206,7 +3206,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3235,7 +3235,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3264,7 +3264,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3293,7 +3293,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3322,7 +3322,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3351,7 +3351,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3380,7 +3380,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3409,7 +3409,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3438,7 +3438,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3467,7 +3467,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3496,7 +3496,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3615,14 +3615,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
